--- a/storage/app/templates/RegularLeaveSummary.xlsx
+++ b/storage/app/templates/RegularLeaveSummary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,17 +187,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -230,7 +230,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -534,12 +534,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -548,52 +548,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -606,12 +606,12 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
